--- a/excel/data_excel/PetType.xlsx
+++ b/excel/data_excel/PetType.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE3DF6-0016-4282-9F07-09E5294A8AF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13237" yWindow="4455" windowWidth="15391" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,15 +13,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="PetType" localSheetId="0">Sheet1!$A$1:$V$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$W$3</definedName>
+    <definedName name="PetType" localSheetId="0">Sheet1!$B$1:$W$23</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="PetType" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="PetType" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\minieditor20190622\Editor20190622\project\dreamland\excel\data_excel\PetType.txt">
       <textFields count="22">
         <textField/>
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>pet type</t>
   </si>
@@ -277,12 +279,44 @@
   </si>
   <si>
     <t>hydra</t>
+  </si>
+  <si>
+    <t>数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_PetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,12 +365,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PetType" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="PetType" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +452,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,6 +504,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,785 +696,993 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>26</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>28</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="N5">
+      <c r="O7">
         <v>290</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P7" t="s">
         <v>30</v>
       </c>
-      <c r="P5">
+      <c r="Q7">
         <v>291</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R7" t="s">
         <v>31</v>
       </c>
-      <c r="R5">
+      <c r="S7">
         <v>292</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T7" t="s">
         <v>32</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>34</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N8" t="s">
         <v>35</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N9" t="s">
         <v>38</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>42</v>
       </c>
-      <c r="B9">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>43</v>
       </c>
-      <c r="N9">
+      <c r="O11">
         <v>338</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P11" t="s">
         <v>44</v>
       </c>
-      <c r="P9">
+      <c r="Q11">
         <v>359</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R11" t="s">
         <v>45</v>
       </c>
-      <c r="R9">
+      <c r="S11">
         <v>561</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T11" t="s">
         <v>46</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B10">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>48</v>
       </c>
-      <c r="B11">
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>49</v>
       </c>
-      <c r="B12">
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M14">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N14" t="s">
         <v>49</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B13">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>52</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N15" t="s">
         <v>53</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B14">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
         <v>55</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N16" t="s">
         <v>53</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B15">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
         <v>57</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N17" t="s">
         <v>58</v>
       </c>
-      <c r="N15">
+      <c r="O17">
         <v>423</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P17" t="s">
         <v>59</v>
       </c>
-      <c r="P15">
+      <c r="Q17">
         <v>422</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R17" t="s">
         <v>60</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
-      <c r="B16">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
         <v>62</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N18" t="s">
         <v>63</v>
       </c>
-      <c r="N16">
+      <c r="O18">
         <v>426</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P18" t="s">
         <v>64</v>
       </c>
-      <c r="P16">
+      <c r="Q18">
         <v>427</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R18" t="s">
         <v>65</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="B17">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
         <v>67</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>68</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B18">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
         <v>16</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>70</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>71</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B19">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
         <v>17</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="B20">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22">
         <v>18</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>74</v>
       </c>
-      <c r="B21">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="V21">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="W23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:W3" xr:uid="{BF8FB865-2AAA-4B6D-A8D7-F7854853A299}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1411,12 +1690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
